--- a/Village Panchayat/Nerul Quotation/Nerul.xlsx
+++ b/Village Panchayat/Nerul Quotation/Nerul.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>Active Components</t>
   </si>
@@ -136,13 +138,46 @@
   </si>
   <si>
     <t>Dlink Jack Cat 6 Keystone UTP - White</t>
+  </si>
+  <si>
+    <t>Saket</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Hiru</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Taken by</t>
+  </si>
+  <si>
+    <t>Deepak</t>
+  </si>
+  <si>
+    <t>Petrol (136956)</t>
+  </si>
+  <si>
+    <t>Nerul Material</t>
+  </si>
+  <si>
+    <t>Sandesh</t>
+  </si>
+  <si>
+    <t>Keshav</t>
+  </si>
+  <si>
+    <t>Nerul Site</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +211,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -254,41 +296,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -298,22 +379,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -598,728 +664,728 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="18"/>
-    <col min="2" max="2" width="45.44140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="18"/>
-    <col min="7" max="7" width="20.44140625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="8.88671875" style="10"/>
+    <col min="2" max="2" width="45.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="20.44140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
         <v>84690</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f t="shared" ref="E3:E12" si="0">C3*D3</f>
         <v>338760</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11">
         <f>C3-G3</f>
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>12</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>8400</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>100800</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11">
         <f t="shared" ref="H4:H29" si="1">C4-G4</f>
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
         <v>24400</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>97600</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
         <v>162400</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>162400</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>15000</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
         <v>49400</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>197600</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>5990</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>11980</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>8</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>10880</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>87040</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>18380</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>36760</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
         <v>35990</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>35990</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="5">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="10"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4">
         <v>24990</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <f t="shared" ref="E17:E29" si="2">C17*D17</f>
         <v>99960</v>
       </c>
-      <c r="G17" s="19">
-        <v>4</v>
-      </c>
-      <c r="H17" s="19">
+      <c r="G17" s="11">
+        <v>4</v>
+      </c>
+      <c r="H17" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
         <v>7600</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <f t="shared" si="2"/>
         <v>7600</v>
       </c>
-      <c r="G18" s="19">
-        <v>1</v>
-      </c>
-      <c r="H18" s="19">
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>6</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>2600</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <f t="shared" si="2"/>
         <v>15600</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>4</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="3">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>36</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>180</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <f t="shared" si="2"/>
         <v>6480</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>60</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>80</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <f t="shared" si="2"/>
         <v>4800</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="11">
         <v>60</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
         <v>400</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19">
+      <c r="G22" s="11"/>
+      <c r="H22" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>36</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>180</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <f t="shared" si="2"/>
         <v>6480</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19">
+      <c r="G23" s="11"/>
+      <c r="H23" s="11">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>3000</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>120</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <f t="shared" si="2"/>
         <v>360000</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19">
+      <c r="G24" s="11"/>
+      <c r="H24" s="11">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>9</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="4">
-        <v>4</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4">
         <v>11160</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <f t="shared" si="2"/>
         <v>44640</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19">
+      <c r="G25" s="11"/>
+      <c r="H25" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>10</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>5800</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <f t="shared" si="2"/>
         <v>11600</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19">
+      <c r="G26" s="11"/>
+      <c r="H26" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>11</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>60</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>300</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f t="shared" si="2"/>
         <v>18000</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19">
+      <c r="G27" s="11"/>
+      <c r="H27" s="11">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>12</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>10</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>1000</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19">
+      <c r="G28" s="11"/>
+      <c r="H28" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>13</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
         <v>150000</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19">
+      <c r="G29" s="11"/>
+      <c r="H29" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="5">
         <f>SUM(E17:E29)</f>
         <v>735560</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="5">
         <f>E13+E30</f>
         <v>1819490</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="5">
         <f>E31*9%</f>
         <v>163754.1</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="5">
         <f>E31*9%</f>
         <v>163754.1</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="5">
         <f>SUM(E31:E33)</f>
         <v>2146998.2000000002</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="10"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1335,4 +1401,848 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="70.88671875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="6" style="13" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" style="13"/>
+    <col min="7" max="7" width="13.6640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>84690</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E11" si="0">C3*D3</f>
+        <v>338760</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16">
+        <f>C3-G3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8400</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>100800</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16">
+        <f t="shared" ref="H4:H26" si="1">C4-G4</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>24400</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>97600</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>162400</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>162400</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>15000</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>75000</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K7" s="13">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5990</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>11980</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10880</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>87040</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>18380</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>36760</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>35990</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>35990</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="17"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>24990</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" ref="E15:E26" si="2">C15*D15</f>
+        <v>99960</v>
+      </c>
+      <c r="G15" s="16">
+        <v>4</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>7600</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="2"/>
+        <v>7600</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="2"/>
+        <v>15600</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4">
+        <v>180</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="2"/>
+        <v>6480</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>5</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>60</v>
+      </c>
+      <c r="D19" s="4">
+        <v>80</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
+      <c r="G19" s="16">
+        <v>60</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>400</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4">
+        <v>180</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="2"/>
+        <v>6480</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D22" s="4">
+        <v>120</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>11160</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="2"/>
+        <v>44640</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5800</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="2"/>
+        <v>11600</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3">
+        <v>60</v>
+      </c>
+      <c r="D25" s="4">
+        <v>300</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="11">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Village Panchayat/Nerul Quotation/Nerul.xlsx
+++ b/Village Panchayat/Nerul Quotation/Nerul.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>Active Components</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>Nerul Site</t>
+  </si>
+  <si>
+    <t>Petrol (67741)</t>
+  </si>
+  <si>
+    <t>Petrol (139523)</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -296,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -380,6 +389,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1407,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2006,241 +2021,297 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="29">
+        <v>45175</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E2" s="11">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="29">
+        <v>45175</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E3" s="11">
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="29">
+        <v>45176</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29">
+        <v>45176</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="11">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="29">
+        <v>45176</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="29">
+        <v>45176</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="19">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="29">
+        <v>45178</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="30">
+        <v>45181</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="19">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="30">
+        <v>45181</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="E22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Village Panchayat/Nerul Quotation/Nerul.xlsx
+++ b/Village Panchayat/Nerul Quotation/Nerul.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
   <si>
     <t>Active Components</t>
   </si>
@@ -140,15 +140,6 @@
     <t>Dlink Jack Cat 6 Keystone UTP - White</t>
   </si>
   <si>
-    <t>Saket</t>
-  </si>
-  <si>
-    <t>Aditya</t>
-  </si>
-  <si>
-    <t>Hiru</t>
-  </si>
-  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -180,13 +171,33 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Ordered Item</t>
+  </si>
+  <si>
+    <t>Received Item</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Dlink 7 port Unmanaged Switch with 4 x 10/100/1000 Base-T PoE+
+Ports, 1 x 10/100/1000 Base-T Port &amp; 2 x 100/1000 Base-X SFP port.
+-40°C~70°C (-40°F~158°F) Operating Temperature.</t>
+  </si>
+  <si>
+    <t>Describtion from point 7 along with price 49400</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,13 +243,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial  "/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -305,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -364,6 +410,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -391,10 +443,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -683,7 +795,7 @@
       <selection sqref="A1:H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="10"/>
     <col min="2" max="2" width="45.44140625" style="10" customWidth="1"/>
@@ -696,16 +808,16 @@
     <col min="9" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="21">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -728,7 +840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="31.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -751,7 +863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="31.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -774,7 +886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="31.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -797,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="31.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -820,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="46.8">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -843,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="90" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -866,7 +978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="33.6" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -889,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="46.8">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -912,7 +1024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -935,7 +1047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -958,13 +1070,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:8" ht="15.6">
+      <c r="A13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="5">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -972,7 +1084,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -981,18 +1093,18 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:8" ht="21">
+      <c r="A15" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="6"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -1011,7 +1123,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1036,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="31.2">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -1061,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="31.2">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -1084,7 +1196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -1107,7 +1219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="28.8">
       <c r="A21" s="3">
         <v>5</v>
       </c>
@@ -1132,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="31.2">
       <c r="A22" s="3">
         <v>6</v>
       </c>
@@ -1155,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="31.2">
       <c r="A23" s="3">
         <v>7</v>
       </c>
@@ -1178,7 +1290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="46.8">
       <c r="A24" s="3">
         <v>8</v>
       </c>
@@ -1201,7 +1313,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="31.2">
       <c r="A25" s="3">
         <v>9</v>
       </c>
@@ -1224,7 +1336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="31.2">
       <c r="A26" s="3">
         <v>10</v>
       </c>
@@ -1247,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="31.2">
       <c r="A27" s="3">
         <v>11</v>
       </c>
@@ -1270,7 +1382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="31.2">
       <c r="A28" s="3">
         <v>12</v>
       </c>
@@ -1293,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="31.2">
       <c r="A29" s="3">
         <v>13</v>
       </c>
@@ -1316,13 +1428,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:8" ht="15.6">
+      <c r="A30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="5">
         <f>SUM(E17:E29)</f>
         <v>735560</v>
@@ -1330,13 +1442,13 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:8" ht="15.6">
+      <c r="A31" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="5">
         <f>E13+E30</f>
         <v>1819490</v>
@@ -1344,13 +1456,13 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:8" ht="15.6">
+      <c r="A32" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="5">
         <f>E31*9%</f>
         <v>163754.1</v>
@@ -1358,13 +1470,13 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:8" ht="15.6">
+      <c r="A33" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="5">
         <f>E31*9%</f>
         <v>163754.1</v>
@@ -1372,13 +1484,13 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:8" ht="15.6">
+      <c r="A34" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="5">
         <f>SUM(E31:E33)</f>
         <v>2146998.2000000002</v>
@@ -1386,18 +1498,18 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
+    <row r="36" spans="1:8" ht="15.6">
+      <c r="A36" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="23"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="6"/>
@@ -1420,34 +1532,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="70.88671875" style="13" customWidth="1"/>
     <col min="3" max="3" width="6" style="13" customWidth="1"/>
     <col min="4" max="6" width="8.88671875" style="13"/>
     <col min="7" max="7" width="13.6640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="13" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="10" width="13.44140625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:12" ht="21">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1469,17 +1584,14 @@
       <c r="H2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.6">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1493,7 +1605,7 @@
         <v>84690</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E11" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E12" si="0">C3*D3</f>
         <v>338760</v>
       </c>
       <c r="G3" s="16"/>
@@ -1501,8 +1613,10 @@
         <f>C3-G3</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.6">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1521,11 +1635,13 @@
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16">
-        <f t="shared" ref="H4:H26" si="1">C4-G4</f>
+        <f t="shared" ref="H4:H27" si="1">C4-G4</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.6">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1547,8 +1663,10 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.6">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1570,8 +1688,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J6" s="16">
+        <v>1</v>
+      </c>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="43.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1579,441 +1701,1179 @@
         <v>30</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
         <v>15000</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="G7" s="16"/>
-      <c r="H7" s="16">
-        <f t="shared" si="1"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16">
         <v>5</v>
       </c>
-      <c r="K7" s="13">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L7" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="41.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
+      <c r="B8" s="47" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>5990</v>
+        <v>49400</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>11980</v>
+        <v>197600</v>
       </c>
       <c r="G8" s="16"/>
-      <c r="H8" s="16">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.6">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4">
-        <v>10880</v>
+        <v>5990</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>87040</v>
+        <v>11980</v>
       </c>
       <c r="G9" s="16"/>
-      <c r="H9" s="16">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="31.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4">
-        <v>18380</v>
+        <v>10880</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>36760</v>
+        <v>87040</v>
       </c>
       <c r="G10" s="16"/>
-      <c r="H10" s="16">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.6">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4">
-        <v>35990</v>
+        <v>18380</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>35990</v>
+        <v>36760</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.6">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>35990</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>35990</v>
+      </c>
       <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="17"/>
+      <c r="H12" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.6">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" ht="21">
+      <c r="A14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="17"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.6">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.6">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
         <v>24990</v>
       </c>
-      <c r="E15" s="4">
-        <f t="shared" ref="E15:E26" si="2">C15*D15</f>
+      <c r="E16" s="4">
+        <f t="shared" ref="E16:E27" si="2">C16*D16</f>
         <v>99960</v>
       </c>
-      <c r="G15" s="16">
-        <v>4</v>
-      </c>
-      <c r="H15" s="16">
+      <c r="G16" s="16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.6">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
         <v>7600</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <f t="shared" si="2"/>
         <v>7600</v>
       </c>
-      <c r="G16" s="16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="16">
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" ht="31.2">
+      <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>6</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="4">
         <v>2600</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <f t="shared" si="2"/>
         <v>15600</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16">
+      <c r="G18" s="16"/>
+      <c r="H18" s="16">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.6">
+      <c r="A19" s="3">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>36</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D19" s="4">
         <v>180</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <f t="shared" si="2"/>
         <v>6480</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.6">
+      <c r="A20" s="3">
         <v>5</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>60</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <v>80</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <f t="shared" si="2"/>
         <v>4800</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G20" s="16">
         <v>60</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.6">
+      <c r="A21" s="3">
         <v>6</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
         <v>400</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.6">
+      <c r="A22" s="3">
         <v>7</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>36</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="4">
         <v>180</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <f t="shared" si="2"/>
         <v>6480</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" ht="31.2">
+      <c r="A23" s="3">
         <v>8</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>3000</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D23" s="4">
         <v>120</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <f t="shared" si="2"/>
         <v>360000</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16">
+      <c r="G23" s="16"/>
+      <c r="H23" s="16">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.6">
+      <c r="A24" s="3">
         <v>9</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="3">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
         <v>11160</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <f t="shared" si="2"/>
         <v>44640</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="G24" s="16"/>
+      <c r="H24" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.6">
+      <c r="A25" s="3">
         <v>10</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>2</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="4">
         <v>5800</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <f t="shared" si="2"/>
         <v>11600</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16">
+      <c r="G25" s="16"/>
+      <c r="H25" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.6">
+      <c r="A26" s="3">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>60</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D26" s="4">
         <v>300</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="4">
         <f t="shared" si="2"/>
         <v>18000</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16">
+      <c r="G26" s="16"/>
+      <c r="H26" s="16">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.6">
+      <c r="A27" s="3">
         <v>12</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>10</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D27" s="4">
         <v>1000</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.6">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+    </row>
+    <row r="37" spans="1:12" s="49" customFormat="1">
+      <c r="L37" s="48"/>
+    </row>
+    <row r="42" spans="1:12" ht="21">
+      <c r="A42" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.6">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.6">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4">
+        <v>84690</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" ref="E44:E53" si="3">C44*D44</f>
+        <v>338760</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16">
+        <f>C44-G44</f>
+        <v>4</v>
+      </c>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.6">
+      <c r="A45" s="3">
+        <v>2</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="3">
+        <v>12</v>
+      </c>
+      <c r="D45" s="4">
+        <v>8400</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="3"/>
+        <v>100800</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16">
+        <f t="shared" ref="H45:H68" si="4">C45-G45</f>
+        <v>12</v>
+      </c>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.6">
+      <c r="A46" s="3">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4</v>
+      </c>
+      <c r="D46" s="4">
+        <v>24400</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="3"/>
+        <v>97600</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.6">
+      <c r="A47" s="3">
+        <v>4</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="31">
+        <v>1</v>
+      </c>
+      <c r="D47" s="32">
+        <v>162400</v>
+      </c>
+      <c r="E47" s="32">
+        <f t="shared" si="3"/>
+        <v>162400</v>
+      </c>
+      <c r="F47" s="33"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I47" s="33"/>
+      <c r="J47" s="34">
+        <v>1</v>
+      </c>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="1:12" ht="43.2">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>15000</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="3"/>
+        <v>15000</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16">
+        <v>5</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="41.4">
+      <c r="A49" s="3">
+        <v>6</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="35">
+        <v>4</v>
+      </c>
+      <c r="D49" s="36">
+        <v>49400</v>
+      </c>
+      <c r="E49" s="36">
+        <f t="shared" si="3"/>
+        <v>197600</v>
+      </c>
+      <c r="F49" s="37"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38">
+        <v>0</v>
+      </c>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.6">
+      <c r="A50" s="3">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4">
+        <v>5990</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="3"/>
+        <v>11980</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16">
+        <v>0</v>
+      </c>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="31.2">
+      <c r="A51" s="3">
+        <v>8</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="35">
+        <v>8</v>
+      </c>
+      <c r="D51" s="36">
+        <v>10880</v>
+      </c>
+      <c r="E51" s="36">
+        <f t="shared" si="3"/>
+        <v>87040</v>
+      </c>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38">
+        <v>0</v>
+      </c>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.6">
+      <c r="A52" s="3">
+        <v>9</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2</v>
+      </c>
+      <c r="D52" s="4">
+        <v>18380</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="3"/>
+        <v>36760</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.6">
+      <c r="A53" s="3">
+        <v>10</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4">
+        <v>35990</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="3"/>
+        <v>35990</v>
+      </c>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.6">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="18"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" spans="1:12" ht="21">
+      <c r="A55" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="17"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.6">
+      <c r="A56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.6">
+      <c r="A57" s="42">
+        <v>1</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="42">
+        <v>4</v>
+      </c>
+      <c r="D57" s="43">
+        <v>24990</v>
+      </c>
+      <c r="E57" s="43">
+        <f t="shared" ref="E57:E68" si="5">C57*D57</f>
+        <v>99960</v>
+      </c>
+      <c r="F57" s="44"/>
+      <c r="G57" s="45">
+        <v>4</v>
+      </c>
+      <c r="H57" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.6">
+      <c r="A58" s="42">
+        <v>2</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="42">
+        <v>1</v>
+      </c>
+      <c r="D58" s="43">
+        <v>7600</v>
+      </c>
+      <c r="E58" s="43">
+        <f t="shared" si="5"/>
+        <v>7600</v>
+      </c>
+      <c r="F58" s="44"/>
+      <c r="G58" s="45">
+        <v>1</v>
+      </c>
+      <c r="H58" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+    </row>
+    <row r="59" spans="1:12" ht="31.2">
+      <c r="A59" s="3">
+        <v>3</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="3">
+        <v>6</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="5"/>
+        <v>15600</v>
+      </c>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.6">
+      <c r="A60" s="3">
+        <v>4</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="3">
+        <v>36</v>
+      </c>
+      <c r="D60" s="4">
+        <v>180</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="5"/>
+        <v>6480</v>
+      </c>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.6">
+      <c r="A61" s="3">
+        <v>5</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="42">
+        <v>60</v>
+      </c>
+      <c r="D61" s="43">
+        <v>80</v>
+      </c>
+      <c r="E61" s="43">
+        <f t="shared" si="5"/>
+        <v>4800</v>
+      </c>
+      <c r="F61" s="44"/>
+      <c r="G61" s="45">
+        <v>60</v>
+      </c>
+      <c r="H61" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.6">
+      <c r="A62" s="3">
+        <v>6</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4">
+        <v>400</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.6">
+      <c r="A63" s="3">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3">
+        <v>36</v>
+      </c>
+      <c r="D63" s="4">
+        <v>180</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="5"/>
+        <v>6480</v>
+      </c>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+    </row>
+    <row r="64" spans="1:12" ht="31.2">
+      <c r="A64" s="3">
+        <v>8</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D64" s="4">
+        <v>120</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="5"/>
+        <v>360000</v>
+      </c>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.6">
+      <c r="A65" s="3">
+        <v>9</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4</v>
+      </c>
+      <c r="D65" s="4">
+        <v>11160</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="5"/>
+        <v>44640</v>
+      </c>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.6">
+      <c r="A66" s="3">
+        <v>10</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2</v>
+      </c>
+      <c r="D66" s="4">
+        <v>5800</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="5"/>
+        <v>11600</v>
+      </c>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.6">
+      <c r="A67" s="3">
+        <v>11</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="3">
+        <v>60</v>
+      </c>
+      <c r="D67" s="4">
+        <v>300</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="5"/>
+        <v>18000</v>
+      </c>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.6">
+      <c r="A68" s="3">
+        <v>12</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="3">
+        <v>10</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2023,11 +2883,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="8.88671875" style="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
@@ -2035,177 +2895,177 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="20">
         <v>45175</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E2" s="11">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="20">
         <v>45175</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="11">
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="20">
         <v>45176</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="E4" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="20">
         <v>45176</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" s="19">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="20">
         <v>45176</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="20">
         <v>45176</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E7" s="19">
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="20">
         <v>45178</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" s="11">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="21">
         <v>45181</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="19">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="21">
         <v>45181</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E10" s="19">
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2214,7 +3074,7 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2223,7 +3083,7 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2232,7 +3092,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2241,7 +3101,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2250,7 +3110,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2259,7 +3119,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2268,7 +3128,7 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2277,7 +3137,7 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2286,7 +3146,7 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2295,7 +3155,7 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2304,7 +3164,7 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="11">
         <v>21</v>
       </c>

--- a/Village Panchayat/Nerul Quotation/Nerul.xlsx
+++ b/Village Panchayat/Nerul Quotation/Nerul.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="56">
   <si>
     <t>Active Components</t>
   </si>
@@ -197,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +248,22 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial  "/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri  "/>
     </font>
   </fonts>
   <fills count="7">
@@ -351,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -416,6 +433,84 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -443,70 +538,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -809,12 +850,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="15.6">
@@ -1071,12 +1112,12 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.6">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="5">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -1094,12 +1135,12 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="21">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="6"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -1429,12 +1470,12 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.6">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="5">
         <f>SUM(E17:E29)</f>
         <v>735560</v>
@@ -1443,12 +1484,12 @@
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" ht="15.6">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="5">
         <f>E13+E30</f>
         <v>1819490</v>
@@ -1457,12 +1498,12 @@
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="15.6">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="5">
         <f>E31*9%</f>
         <v>163754.1</v>
@@ -1471,12 +1512,12 @@
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="15.6">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="5">
         <f>E31*9%</f>
         <v>163754.1</v>
@@ -1485,12 +1526,12 @@
       <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" ht="15.6">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="5">
         <f>SUM(E31:E33)</f>
         <v>2146998.2000000002</v>
@@ -1506,10 +1547,10 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15.6">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="6"/>
@@ -1534,14 +1575,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="70.88671875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="72" style="13" customWidth="1"/>
     <col min="3" max="3" width="6" style="13" customWidth="1"/>
     <col min="4" max="6" width="8.88671875" style="13"/>
     <col min="7" max="7" width="13.6640625" style="13" customWidth="1"/>
@@ -1554,12 +1595,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="15.6">
@@ -1724,7 +1765,7 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="35" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="3">
@@ -1853,12 +1894,12 @@
       <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:12" ht="21">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="17"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -2196,26 +2237,26 @@
       <c r="K27" s="16"/>
     </row>
     <row r="28" spans="1:12" ht="15.6">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-    </row>
-    <row r="37" spans="1:12" s="49" customFormat="1">
-      <c r="L37" s="48"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+    </row>
+    <row r="37" spans="1:12" s="37" customFormat="1">
+      <c r="L37" s="36"/>
     </row>
     <row r="42" spans="1:12" ht="21">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:12" ht="15.6">
@@ -2234,16 +2275,16 @@
       <c r="E43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="40" t="s">
+      <c r="G43" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="34" t="s">
+      <c r="J43" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="K43" s="38" t="s">
+      <c r="K43" s="26" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2326,30 +2367,27 @@
       <c r="A47" s="3">
         <v>4</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="31">
-        <v>1</v>
-      </c>
-      <c r="D47" s="32">
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
         <v>162400</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="4">
         <f t="shared" si="3"/>
         <v>162400</v>
       </c>
-      <c r="F47" s="33"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I47" s="33"/>
-      <c r="J47" s="34">
-        <v>1</v>
-      </c>
-      <c r="K47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:12" ht="43.2">
       <c r="A48" s="3">
@@ -2384,27 +2422,27 @@
       <c r="A49" s="3">
         <v>6</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="35">
-        <v>4</v>
-      </c>
-      <c r="D49" s="36">
+      <c r="C49" s="23">
+        <v>4</v>
+      </c>
+      <c r="D49" s="24">
         <v>49400</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E49" s="24">
         <f t="shared" si="3"/>
         <v>197600</v>
       </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38">
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26">
         <v>0</v>
       </c>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
     </row>
     <row r="50" spans="1:12" ht="15.6">
       <c r="A50" s="3">
@@ -2436,27 +2474,27 @@
       <c r="A51" s="3">
         <v>8</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="23">
         <v>8</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="24">
         <v>10880</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="24">
         <f t="shared" si="3"/>
         <v>87040</v>
       </c>
-      <c r="F51" s="37"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38">
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26">
         <v>0</v>
       </c>
-      <c r="I51" s="37"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
       <c r="L51" s="14" t="s">
         <v>52</v>
       </c>
@@ -2523,12 +2561,12 @@
       <c r="K54" s="16"/>
     </row>
     <row r="55" spans="1:12" ht="21">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="17"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
@@ -2557,24 +2595,24 @@
       <c r="K56" s="16"/>
     </row>
     <row r="57" spans="1:12" ht="15.6">
-      <c r="A57" s="42">
-        <v>1</v>
-      </c>
-      <c r="B57" s="42" t="s">
+      <c r="A57" s="30">
+        <v>1</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="42">
-        <v>4</v>
-      </c>
-      <c r="D57" s="43">
+      <c r="C57" s="30">
+        <v>4</v>
+      </c>
+      <c r="D57" s="31">
         <v>24990</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="31">
         <f t="shared" ref="E57:E68" si="5">C57*D57</f>
         <v>99960</v>
       </c>
-      <c r="F57" s="44"/>
-      <c r="G57" s="45">
+      <c r="F57" s="32"/>
+      <c r="G57" s="33">
         <v>4</v>
       </c>
       <c r="H57" s="16">
@@ -2585,24 +2623,24 @@
       <c r="K57" s="16"/>
     </row>
     <row r="58" spans="1:12" ht="15.6">
-      <c r="A58" s="42">
+      <c r="A58" s="30">
         <v>2</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="42">
-        <v>1</v>
-      </c>
-      <c r="D58" s="43">
+      <c r="C58" s="30">
+        <v>1</v>
+      </c>
+      <c r="D58" s="31">
         <v>7600</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="31">
         <f t="shared" si="5"/>
         <v>7600</v>
       </c>
-      <c r="F58" s="44"/>
-      <c r="G58" s="45">
+      <c r="F58" s="32"/>
+      <c r="G58" s="33">
         <v>1</v>
       </c>
       <c r="H58" s="16">
@@ -2612,7 +2650,7 @@
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:12" ht="31.2">
+    <row r="59" spans="1:12" ht="16.8" customHeight="1">
       <c r="A59" s="3">
         <v>3</v>
       </c>
@@ -2669,21 +2707,21 @@
       <c r="A61" s="3">
         <v>5</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="42">
+      <c r="C61" s="30">
         <v>60</v>
       </c>
-      <c r="D61" s="43">
+      <c r="D61" s="31">
         <v>80</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E61" s="31">
         <f t="shared" si="5"/>
         <v>4800</v>
       </c>
-      <c r="F61" s="44"/>
-      <c r="G61" s="45">
+      <c r="F61" s="32"/>
+      <c r="G61" s="33">
         <v>60</v>
       </c>
       <c r="H61" s="16">
@@ -2881,10 +2919,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3052,8 +3090,8 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="21">
-        <v>45181</v>
+      <c r="B10" s="20">
+        <v>45182</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>44</v>
@@ -3061,8 +3099,8 @@
       <c r="D10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="19">
-        <v>240</v>
+      <c r="E10" s="11">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3155,25 +3193,644 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="12" style="41" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="41" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="41" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" style="41" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="41" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" style="41" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" customHeight="1">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+    </row>
+    <row r="2" spans="1:11" ht="23.4" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="43">
+        <v>4</v>
+      </c>
+      <c r="D3" s="44">
+        <v>84690</v>
+      </c>
+      <c r="E3" s="44">
+        <f t="shared" ref="E3:E10" si="0">C3*D3</f>
+        <v>338760</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="I3" s="43">
+        <v>4</v>
+      </c>
+      <c r="J3" s="43"/>
+    </row>
+    <row r="4" spans="1:11" ht="33.6" customHeight="1">
+      <c r="A4" s="43">
+        <v>2</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="43">
+        <v>12</v>
+      </c>
+      <c r="D4" s="44">
+        <v>8400</v>
+      </c>
+      <c r="E4" s="44">
+        <f t="shared" si="0"/>
+        <v>100800</v>
+      </c>
+      <c r="F4" s="43">
+        <v>4</v>
+      </c>
+      <c r="G4" s="43">
+        <f>C4-F4</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="43">
+        <v>12</v>
+      </c>
+      <c r="J4" s="43"/>
+    </row>
+    <row r="5" spans="1:11" ht="24.6" customHeight="1">
+      <c r="A5" s="43">
+        <v>3</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="43">
+        <v>4</v>
+      </c>
+      <c r="D5" s="44">
+        <v>24400</v>
+      </c>
+      <c r="E5" s="44">
+        <f t="shared" si="0"/>
+        <v>97600</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="I5" s="43">
+        <v>4</v>
+      </c>
+      <c r="J5" s="43"/>
+    </row>
+    <row r="6" spans="1:11" ht="45.6" customHeight="1">
+      <c r="A6" s="43">
+        <v>4</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="43">
+        <v>1</v>
+      </c>
+      <c r="D6" s="44">
+        <v>162400</v>
+      </c>
+      <c r="E6" s="44">
+        <f t="shared" si="0"/>
+        <v>162400</v>
+      </c>
+      <c r="F6" s="43">
+        <v>1</v>
+      </c>
+      <c r="G6" s="43">
+        <v>0</v>
+      </c>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="69.599999999999994" customHeight="1">
+      <c r="A7" s="43">
+        <v>5</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="43">
+        <v>4</v>
+      </c>
+      <c r="D7" s="44">
+        <v>49400</v>
+      </c>
+      <c r="E7" s="44">
+        <f t="shared" si="0"/>
+        <v>197600</v>
+      </c>
+      <c r="F7" s="43">
+        <v>5</v>
+      </c>
+      <c r="G7" s="43">
+        <v>0</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="22.2" customHeight="1">
+      <c r="A8" s="43">
+        <v>6</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="43">
+        <v>10</v>
+      </c>
+      <c r="D8" s="44">
+        <v>5990</v>
+      </c>
+      <c r="E8" s="44">
+        <f t="shared" si="0"/>
+        <v>59900</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43">
+        <v>0</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="21" customHeight="1">
+      <c r="A9" s="43">
+        <v>7</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="43">
+        <v>2</v>
+      </c>
+      <c r="D9" s="44">
+        <v>18380</v>
+      </c>
+      <c r="E9" s="44">
+        <f t="shared" si="0"/>
+        <v>36760</v>
+      </c>
+      <c r="F9" s="43">
+        <v>2</v>
+      </c>
+      <c r="G9" s="43">
+        <v>0</v>
+      </c>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" spans="1:11" ht="31.2" customHeight="1">
+      <c r="A10" s="43">
+        <v>8</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="43">
+        <v>1</v>
+      </c>
+      <c r="D10" s="44">
+        <v>35990</v>
+      </c>
+      <c r="E10" s="44">
+        <f t="shared" si="0"/>
+        <v>35990</v>
+      </c>
+      <c r="F10" s="43">
+        <v>1</v>
+      </c>
+      <c r="G10" s="43">
+        <f>C10-F10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+    </row>
+    <row r="12" spans="1:11" ht="21" customHeight="1">
+      <c r="A12" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" spans="1:11" ht="46.8" customHeight="1">
+      <c r="A13" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" customHeight="1">
+      <c r="A14" s="43">
+        <v>1</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="43">
+        <v>4</v>
+      </c>
+      <c r="D14" s="44">
+        <v>24990</v>
+      </c>
+      <c r="E14" s="44">
+        <f t="shared" ref="E14:E25" si="1">C14*D14</f>
+        <v>99960</v>
+      </c>
+      <c r="F14" s="43">
+        <v>4</v>
+      </c>
+      <c r="G14" s="43">
+        <f t="shared" ref="G14:G25" si="2">C14-F14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" spans="1:11" ht="23.4" customHeight="1">
+      <c r="A15" s="43">
+        <v>2</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="43">
+        <v>1</v>
+      </c>
+      <c r="D15" s="44">
+        <v>7600</v>
+      </c>
+      <c r="E15" s="44">
+        <f t="shared" si="1"/>
+        <v>7600</v>
+      </c>
+      <c r="F15" s="43">
+        <v>1</v>
+      </c>
+      <c r="G15" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+    </row>
+    <row r="16" spans="1:11" ht="187.2" customHeight="1">
+      <c r="A16" s="43">
+        <v>3</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="43">
+        <v>6</v>
+      </c>
+      <c r="D16" s="44">
+        <v>2600</v>
+      </c>
+      <c r="E16" s="44">
+        <f t="shared" si="1"/>
+        <v>15600</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="93.6" customHeight="1">
+      <c r="A17" s="43">
+        <v>4</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="43">
+        <v>36</v>
+      </c>
+      <c r="D17" s="44">
+        <v>180</v>
+      </c>
+      <c r="E17" s="44">
+        <f t="shared" si="1"/>
+        <v>6480</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="1:10" ht="46.8" customHeight="1">
+      <c r="A18" s="43">
+        <v>5</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="43">
+        <v>60</v>
+      </c>
+      <c r="D18" s="44">
+        <v>80</v>
+      </c>
+      <c r="E18" s="44">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+      <c r="F18" s="43">
+        <v>60</v>
+      </c>
+      <c r="G18" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" customHeight="1">
+      <c r="A19" s="43">
+        <v>6</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="43">
+        <v>1</v>
+      </c>
+      <c r="D19" s="44">
+        <v>400</v>
+      </c>
+      <c r="E19" s="44">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="1:10" ht="49.8" customHeight="1">
+      <c r="A20" s="43">
+        <v>7</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="43">
+        <v>36</v>
+      </c>
+      <c r="D20" s="44">
+        <v>180</v>
+      </c>
+      <c r="E20" s="44">
+        <f t="shared" si="1"/>
+        <v>6480</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" spans="1:10" ht="35.4" customHeight="1">
+      <c r="A21" s="43">
+        <v>8</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="43">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="44">
+        <v>120</v>
+      </c>
+      <c r="E21" s="44">
+        <f t="shared" si="1"/>
+        <v>360000</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.2" customHeight="1">
+      <c r="A22" s="43">
+        <v>9</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="43">
+        <v>4</v>
+      </c>
+      <c r="D22" s="44">
+        <v>11160</v>
+      </c>
+      <c r="E22" s="44">
+        <f t="shared" si="1"/>
+        <v>44640</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.399999999999999" customHeight="1">
+      <c r="A23" s="43">
+        <v>10</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="43">
+        <v>2</v>
+      </c>
+      <c r="D23" s="44">
+        <v>5800</v>
+      </c>
+      <c r="E23" s="44">
+        <f t="shared" si="1"/>
+        <v>11600</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="1:10" ht="31.2" customHeight="1">
+      <c r="A24" s="43">
+        <v>11</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="43">
+        <v>60</v>
+      </c>
+      <c r="D24" s="44">
+        <v>300</v>
+      </c>
+      <c r="E24" s="44">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+    </row>
+    <row r="25" spans="1:10" ht="29.4" customHeight="1">
+      <c r="A25" s="43">
+        <v>12</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="43">
+        <v>10</v>
+      </c>
+      <c r="D25" s="44">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="44">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Village Panchayat/Nerul Quotation/Nerul.xlsx
+++ b/Village Panchayat/Nerul Quotation/Nerul.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="56">
   <si>
     <t>Active Components</t>
   </si>
@@ -493,22 +493,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3202,8 +3202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3231,256 +3231,277 @@
       <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:11" ht="23.4" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="42" t="s">
+      <c r="D2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="1:11" ht="14.4" customHeight="1">
+      <c r="A3" s="42">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="43">
-        <v>4</v>
-      </c>
-      <c r="D3" s="44">
+      <c r="C3" s="42">
+        <v>4</v>
+      </c>
+      <c r="D3" s="43">
         <v>84690</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="43">
         <f t="shared" ref="E3:E10" si="0">C3*D3</f>
         <v>338760</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="I3" s="43">
-        <v>4</v>
-      </c>
-      <c r="J3" s="43"/>
-    </row>
-    <row r="4" spans="1:11" ht="33.6" customHeight="1">
-      <c r="A4" s="43">
+      <c r="F3" s="42"/>
+      <c r="G3" s="42">
+        <v>0</v>
+      </c>
+      <c r="I3" s="42">
+        <v>0</v>
+      </c>
+      <c r="J3" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" customHeight="1">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="42">
         <v>12</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="43">
         <v>8400</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="43">
         <f t="shared" si="0"/>
         <v>100800</v>
       </c>
-      <c r="F4" s="43">
-        <v>4</v>
-      </c>
-      <c r="G4" s="43">
-        <f>C4-F4</f>
-        <v>8</v>
-      </c>
-      <c r="I4" s="43">
+      <c r="F4" s="42">
+        <v>4</v>
+      </c>
+      <c r="G4" s="42">
+        <v>0</v>
+      </c>
+      <c r="I4" s="42">
+        <v>0</v>
+      </c>
+      <c r="J4" s="42">
         <v>12</v>
       </c>
-      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="24.6" customHeight="1">
-      <c r="A5" s="43">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="43">
-        <v>4</v>
-      </c>
-      <c r="D5" s="44">
+      <c r="C5" s="42">
+        <v>4</v>
+      </c>
+      <c r="D5" s="43">
         <v>24400</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <f t="shared" si="0"/>
         <v>97600</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="I5" s="43">
-        <v>4</v>
-      </c>
-      <c r="J5" s="43"/>
-    </row>
-    <row r="6" spans="1:11" ht="45.6" customHeight="1">
-      <c r="A6" s="43">
-        <v>4</v>
-      </c>
-      <c r="B6" s="43" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42">
+        <v>0</v>
+      </c>
+      <c r="I5" s="42">
+        <v>0</v>
+      </c>
+      <c r="J5" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="22.2" customHeight="1">
+      <c r="A6" s="42">
+        <v>4</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="43">
-        <v>1</v>
-      </c>
-      <c r="D6" s="44">
+      <c r="C6" s="42">
+        <v>1</v>
+      </c>
+      <c r="D6" s="43">
         <v>162400</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <f t="shared" si="0"/>
         <v>162400</v>
       </c>
-      <c r="F6" s="43">
-        <v>1</v>
-      </c>
-      <c r="G6" s="43">
-        <v>0</v>
-      </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="69.599999999999994" customHeight="1">
-      <c r="A7" s="43">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42">
+        <v>0</v>
+      </c>
+      <c r="I6" s="42">
+        <v>0</v>
+      </c>
+      <c r="J6" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40.799999999999997" customHeight="1">
+      <c r="A7" s="42">
         <v>5</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="43">
-        <v>4</v>
-      </c>
-      <c r="D7" s="44">
+      <c r="C7" s="42">
+        <v>4</v>
+      </c>
+      <c r="D7" s="43">
         <v>49400</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="43">
         <f t="shared" si="0"/>
         <v>197600</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <v>5</v>
       </c>
-      <c r="G7" s="43">
-        <v>0</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43">
-        <v>5</v>
+      <c r="G7" s="42">
+        <v>0</v>
+      </c>
+      <c r="I7" s="42">
+        <v>0</v>
+      </c>
+      <c r="J7" s="42">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="22.2" customHeight="1">
-      <c r="A8" s="43">
+      <c r="A8" s="42">
         <v>6</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="42">
         <v>10</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="43">
         <v>5990</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <f t="shared" si="0"/>
         <v>59900</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43">
-        <v>0</v>
-      </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43">
+      <c r="F8" s="42"/>
+      <c r="G8" s="42">
+        <v>0</v>
+      </c>
+      <c r="I8" s="42">
+        <v>0</v>
+      </c>
+      <c r="J8" s="42">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1">
-      <c r="A9" s="43">
+      <c r="A9" s="42">
         <v>7</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="42">
         <v>2</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="43">
         <v>18380</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <f t="shared" si="0"/>
         <v>36760</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <v>2</v>
       </c>
-      <c r="G9" s="43">
-        <v>0</v>
-      </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-    </row>
-    <row r="10" spans="1:11" ht="31.2" customHeight="1">
-      <c r="A10" s="43">
+      <c r="G9" s="42">
+        <v>0</v>
+      </c>
+      <c r="I9" s="42">
+        <v>0</v>
+      </c>
+      <c r="J9" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.8" customHeight="1">
+      <c r="A10" s="42">
         <v>8</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="43">
-        <v>1</v>
-      </c>
-      <c r="D10" s="44">
+      <c r="C10" s="42">
+        <v>1</v>
+      </c>
+      <c r="D10" s="43">
         <v>35990</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <f t="shared" si="0"/>
         <v>35990</v>
       </c>
-      <c r="F10" s="43">
-        <v>1</v>
-      </c>
-      <c r="G10" s="43">
+      <c r="F10" s="42">
+        <v>1</v>
+      </c>
+      <c r="G10" s="42">
         <f>C10-F10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
+      <c r="I10" s="42">
+        <v>0</v>
+      </c>
+      <c r="J10" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
       <c r="A12" s="58" t="s">
@@ -3489,341 +3510,351 @@
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
       <c r="D12" s="60"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-    </row>
-    <row r="13" spans="1:11" ht="46.8" customHeight="1">
-      <c r="A13" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="42" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" spans="1:11" ht="27.6" customHeight="1">
+      <c r="A13" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-    </row>
-    <row r="14" spans="1:11" ht="28.8" customHeight="1">
-      <c r="A14" s="43">
-        <v>1</v>
-      </c>
-      <c r="B14" s="43" t="s">
+      <c r="F13" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20.399999999999999" customHeight="1">
+      <c r="A14" s="42">
+        <v>1</v>
+      </c>
+      <c r="B14" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="43">
-        <v>4</v>
-      </c>
-      <c r="D14" s="44">
+      <c r="C14" s="42">
+        <v>4</v>
+      </c>
+      <c r="D14" s="43">
         <v>24990</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="43">
         <f t="shared" ref="E14:E25" si="1">C14*D14</f>
         <v>99960</v>
       </c>
-      <c r="F14" s="43">
-        <v>4</v>
-      </c>
-      <c r="G14" s="43">
+      <c r="F14" s="42">
+        <v>4</v>
+      </c>
+      <c r="G14" s="42">
         <f t="shared" ref="G14:G25" si="2">C14-F14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:11" ht="23.4" customHeight="1">
-      <c r="A15" s="43">
+      <c r="A15" s="42">
         <v>2</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="43">
-        <v>1</v>
-      </c>
-      <c r="D15" s="44">
+      <c r="C15" s="42">
+        <v>1</v>
+      </c>
+      <c r="D15" s="43">
         <v>7600</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="43">
         <f t="shared" si="1"/>
         <v>7600</v>
       </c>
-      <c r="F15" s="43">
-        <v>1</v>
-      </c>
-      <c r="G15" s="43">
+      <c r="F15" s="42">
+        <v>1</v>
+      </c>
+      <c r="G15" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-    </row>
-    <row r="16" spans="1:11" ht="187.2" customHeight="1">
-      <c r="A16" s="43">
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+    </row>
+    <row r="16" spans="1:11" ht="33" customHeight="1">
+      <c r="A16" s="42">
         <v>3</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="42">
         <v>6</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="43">
         <v>2600</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="43">
         <f t="shared" si="1"/>
         <v>15600</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42">
+        <v>0</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42">
+        <v>1</v>
+      </c>
       <c r="K16" s="41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="93.6" customHeight="1">
-      <c r="A17" s="43">
-        <v>4</v>
-      </c>
-      <c r="B17" s="43" t="s">
+    <row r="17" spans="1:10" ht="28.2" customHeight="1">
+      <c r="A17" s="42">
+        <v>4</v>
+      </c>
+      <c r="B17" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="42">
         <v>36</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="43">
         <v>180</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="43">
         <f t="shared" si="1"/>
         <v>6480</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43">
+      <c r="F17" s="42"/>
+      <c r="G17" s="42">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-    </row>
-    <row r="18" spans="1:10" ht="46.8" customHeight="1">
-      <c r="A18" s="43">
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1">
+      <c r="A18" s="42">
         <v>5</v>
       </c>
       <c r="B18" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="42">
         <v>60</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="43">
         <v>80</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="42">
         <v>60</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.8" customHeight="1">
-      <c r="A19" s="43">
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.8" customHeight="1">
+      <c r="A19" s="42">
         <v>6</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="43">
-        <v>1</v>
-      </c>
-      <c r="D19" s="44">
+      <c r="C19" s="42">
+        <v>1</v>
+      </c>
+      <c r="D19" s="43">
         <v>400</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="43">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43">
+      <c r="F19" s="42"/>
+      <c r="G19" s="42">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-    </row>
-    <row r="20" spans="1:10" ht="49.8" customHeight="1">
-      <c r="A20" s="43">
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+    </row>
+    <row r="20" spans="1:10" ht="30.6" customHeight="1">
+      <c r="A20" s="42">
         <v>7</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="42">
         <v>36</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="43">
         <v>180</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="43">
         <f t="shared" si="1"/>
         <v>6480</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42">
+        <v>0</v>
+      </c>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="35.4" customHeight="1">
-      <c r="A21" s="43">
+      <c r="A21" s="42">
         <v>8</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="42">
         <v>3000</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="43">
         <v>120</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="43">
         <f t="shared" si="1"/>
         <v>360000</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43">
+      <c r="F21" s="42"/>
+      <c r="G21" s="42">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
     </row>
     <row r="22" spans="1:10" ht="22.2" customHeight="1">
-      <c r="A22" s="43">
+      <c r="A22" s="42">
         <v>9</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="43">
-        <v>4</v>
-      </c>
-      <c r="D22" s="44">
+      <c r="C22" s="42">
+        <v>4</v>
+      </c>
+      <c r="D22" s="43">
         <v>11160</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="43">
         <f t="shared" si="1"/>
         <v>44640</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43">
+      <c r="F22" s="42"/>
+      <c r="G22" s="42">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
     </row>
     <row r="23" spans="1:10" ht="20.399999999999999" customHeight="1">
-      <c r="A23" s="43">
+      <c r="A23" s="42">
         <v>10</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="42">
         <v>2</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="43">
         <v>5800</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="43">
         <f t="shared" si="1"/>
         <v>11600</v>
       </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43">
+      <c r="F23" s="42"/>
+      <c r="G23" s="42">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
     </row>
     <row r="24" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A24" s="43">
+      <c r="A24" s="42">
         <v>11</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="42">
         <v>60</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="43">
         <v>300</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="43">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43">
+      <c r="F24" s="42"/>
+      <c r="G24" s="42">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" ht="29.4" customHeight="1">
-      <c r="A25" s="43">
+      <c r="A25" s="42">
         <v>12</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="42">
         <v>10</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="43">
         <v>1000</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43">
+      <c r="F25" s="42"/>
+      <c r="G25" s="42">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Village Panchayat/Nerul Quotation/Nerul.xlsx
+++ b/Village Panchayat/Nerul Quotation/Nerul.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="65">
   <si>
     <t>Active Components</t>
   </si>
@@ -192,6 +192,33 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Petrol (147810)</t>
+  </si>
+  <si>
+    <t>Nerul Work</t>
+  </si>
+  <si>
+    <t>Petrol (No Bill)</t>
+  </si>
+  <si>
+    <t>RJ 45 Connectors</t>
+  </si>
+  <si>
+    <t>Krishna Paints and Sanitary</t>
+  </si>
+  <si>
+    <t>Avon Computers</t>
+  </si>
+  <si>
+    <t>Leth Charges</t>
+  </si>
+  <si>
+    <t>Azrenkar Hardware</t>
+  </si>
+  <si>
+    <t>Petrol (85346)</t>
   </si>
 </sst>
 </file>
@@ -2919,10 +2946,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3107,91 +3134,441 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="B11" s="20">
+        <v>45183</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="11">
+        <v>300</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="20">
+        <v>45197</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="11">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="B13" s="20">
+        <v>45197</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="11">
+        <v>262</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="B14" s="20">
+        <v>45172</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="11">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="B15" s="20">
+        <v>45173</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="11">
+        <v>728</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="20">
+        <v>45173</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="11">
+        <v>590</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="B17" s="20">
+        <v>45173</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="11">
+        <v>250</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="B18" s="20">
+        <v>45173</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="11">
+        <v>500</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="B19" s="20">
+        <v>45173</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="11">
+        <v>400</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="B20" s="20">
+        <v>45174</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3202,7 +3579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/Village Panchayat/Nerul Quotation/Nerul.xlsx
+++ b/Village Panchayat/Nerul Quotation/Nerul.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="70">
   <si>
     <t>Active Components</t>
   </si>
@@ -219,6 +219,21 @@
   </si>
   <si>
     <t>Petrol (85346)</t>
+  </si>
+  <si>
+    <t>Flexible</t>
+  </si>
+  <si>
+    <t>Petrol (18094)</t>
+  </si>
+  <si>
+    <t>Sir</t>
+  </si>
+  <si>
+    <t>Fabricator Nerul</t>
+  </si>
+  <si>
+    <t>Rikshaw</t>
   </si>
 </sst>
 </file>
@@ -395,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -576,6 +591,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2948,8 +2966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3186,7 +3204,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20">
-        <v>45172</v>
+        <v>45202</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>44</v>
@@ -3203,7 +3221,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20">
-        <v>45173</v>
+        <v>45203</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>41</v>
@@ -3220,7 +3238,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20">
-        <v>45173</v>
+        <v>45203</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>41</v>
@@ -3237,7 +3255,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20">
-        <v>45173</v>
+        <v>45203</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>41</v>
@@ -3254,7 +3272,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20">
-        <v>45173</v>
+        <v>45203</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>41</v>
@@ -3271,7 +3289,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20">
-        <v>45173</v>
+        <v>45203</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>41</v>
@@ -3288,7 +3306,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="20">
-        <v>45174</v>
+        <v>45204</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>44</v>
@@ -3304,55 +3322,103 @@
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="B21" s="20">
+        <v>45205</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="11">
+        <v>170</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="B22" s="20">
+        <v>45205</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="11">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="B23" s="20">
+        <v>45206</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="11">
+        <v>200</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="B24" s="20">
+        <v>45208</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="11">
+        <v>200</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="B25" s="20">
+        <v>45208</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="11">
+        <v>800</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="B26" s="20">
+        <v>45208</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="11">
+        <v>700</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="11">
